--- a/CZ-1C++3班/C++day9-8月11日-栈和队列/8月11日代码/STL常用函数表.xlsx
+++ b/CZ-1C++3班/C++day9-8月11日-栈和队列/8月11日代码/STL常用函数表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduSyncdisk\文都工作\2、线下课资料备案\C++班级git仓库\CZ-1C++3班\C++day9-8月11日-栈和队列\8月11日代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D1DC6E-633E-42B8-831B-7724180FC179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039018FC-169E-47BE-A24C-E89A18B0EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{881AE305-7AA8-46C8-92EE-4C9128C6D91C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
   <si>
     <t>函数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A75F76-BCF1-40D6-BAF6-42981A45778F}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="167" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1631,12 +1631,14 @@
       <c r="E21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>47</v>
+      <c r="J21" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1655,12 +1657,14 @@
       <c r="E22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
-        <v>47</v>
+      <c r="J22" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1679,12 +1683,14 @@
       <c r="E23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>47</v>
+      <c r="J23" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
